--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/66/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/66/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.3799379937993799</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1427.427427427428</v>
+        <v>710.1510151015102</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.0863886388638864</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2812812812812813</v>
+        <v>0.3849384938493849</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1703.703703703704</v>
+        <v>995.1795179517952</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365.3653653653654</v>
+        <v>205.940594059406</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.5545545545546</v>
+        <v>179.2394239423942</v>
       </c>
     </row>
   </sheetData>
